--- a/biology/Botanique/Drypetes/Drypetes.xlsx
+++ b/biology/Botanique/Drypetes/Drypetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drypetes est un genre de plantes à fleurs rattaché à la famille des Putranjivaceae dans la classification phylogénétique. Les différents genres de cette famille faisaient partie des Euphorbiacées dans la classification classique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Drypetes acuminata P.I. Forst.
 Drypetes alba Poit.
 Drypetes asymmetricarpa G. A. Levin
@@ -556,7 +572,7 @@
 Drypetes pacifica (I.W.Bailey &amp; A.C.Sm.) A.C.Sm.
 Drypetes vernicosa P.I. Forst.
 Drypetes vitiensis Croizat
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Drypetes acuminata P.I.Forst.
 Drypetes aetoxyloides Airy Shaw
 Drypetes aframensis Hutch.
@@ -765,11 +781,11 @@
 Drypetes wightii (Hook.f.) Pax &amp; K.Hoffm.
 Drypetes xanthophylloides Airy Shaw
 Drypetes yapensis Tuyama
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Drypetes hainanensis Merr.
 Drypetes lateriflora (Sw.) Krug &amp; Urb.
 Drypetes sumatrana (Miq.) Pax &amp; Hoffm.
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Drypetes alba Poit.
 Drypetes carolinensis Kaneh.
 Drypetes diversifolia Krug &amp; Urb.
@@ -782,7 +798,7 @@
 Drypetes rotensis Kaneh.
 Drypetes vitiensis Croizat
 Drypetes yapensis Tuyama
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Drypetes acuminata P.I.Forst. (1997)
 Drypetes aetoxyloides Airy Shaw (1969)
 Drypetes aframensis Hutch. (1912)
@@ -1011,7 +1027,7 @@
 Drypetes wightii (Hook.f.) Pax &amp; K.Hoffm. (1922)
 Drypetes xanthophylloides Airy Shaw (1981)
 Drypetes yapensis Tuyama (1940)
-Selon NCBI  (24 juillet 2017)[7] :
+Selon NCBI  (24 juillet 2017) :
 Drypetes alba
 Drypetes arguta
 Drypetes brownii
@@ -1047,7 +1063,7 @@
 Drypetes staudtii
 Drypetes thouarsiana
 Drypetes variabilis
-Selon The Plant List            (24 juillet 2017)[8] :
+Selon The Plant List            (24 juillet 2017) :
 Drypetes acuminata P.I.Forst.
 Drypetes aetoxyloides Airy Shaw
 Drypetes aframensis Hutch.
@@ -1257,7 +1273,7 @@
 Drypetes wightii (Hook.f.) Pax &amp; K.Hoffm.
 Drypetes xanthophylloides Airy Shaw
 Drypetes yapensis Tuyama
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Drypetes acuminata P.I. Forst.
 Drypetes aetoxyloides Airy Shaw
 Drypetes affinis Pax &amp; K. Hoffm.
@@ -1422,7 +1438,8 @@
 Drypetes malabarica (Bedd.) Airy Shaw
 Drypetes maquilingensis (Merr.) Pax &amp; K. Hoffm.
 Drypetes matsumurae (Koidz.) Kaneh.
-Drypetes megacarpa (Merr.) Pax &amp; K.</t>
+Drypetes megacarpa (Merr.) Pax &amp; K. Hoffm.
+Drypetes microph</t>
         </is>
       </c>
     </row>
